--- a/Documents/Valgrind/Valgrindd.xlsx
+++ b/Documents/Valgrind/Valgrindd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K Gouthami\OneDrive\Documents\PROJECT DOCUMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E131C3-739F-43A1-B449-0B60BDA102E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8580DB6F-AE87-476D-A811-150823E436E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{3F417038-968E-449A-A28D-6381F30A67C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3F417038-968E-449A-A28D-6381F30A67C3}"/>
   </bookViews>
   <sheets>
     <sheet name="server Valgrind" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>==5629== Memcheck, a memory error detector</t>
   </si>
@@ -214,15 +214,29 @@
   </si>
   <si>
     <t>==5630== ERROR SUMMARY: 1 errors from 1 contexts (suppressed: 0 from 0)</t>
+  </si>
+  <si>
+    <t>client valgrind</t>
+  </si>
+  <si>
+    <t>server valgrind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -249,8 +263,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,86 +580,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B144A990-A72A-4D54-8715-9B66365B7360}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -696,50 +718,58 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD973666-3F66-49B1-97FB-8900926CAF7C}">
-  <dimension ref="A6:H51"/>
+  <dimension ref="A4:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J10:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="J4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>27</v>
       </c>
@@ -747,7 +777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>29</v>
       </c>
@@ -755,7 +785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>27</v>
       </c>
@@ -930,5 +960,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>